--- a/config_hlw/act_022_qflb_config.xlsx
+++ b/config_hlw/act_022_qflb_config.xlsx
@@ -77,9 +77,6 @@
     <t>"ty_icon_flq3","ty_icon_jb","3dby_btn_sd",</t>
   </si>
   <si>
-    <t>小游戏累计赢金&lt;color=#FFF950&gt;200万&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>game_MiniGame</t>
   </si>
   <si>
@@ -132,14 +129,6 @@
   </si>
   <si>
     <t>3.不同种类的礼包可叠加购买领奖</t>
-  </si>
-  <si>
-    <t>3D捕鱼中累计消耗&lt;color=#FFF950&gt;5万&lt;/color&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中累计消耗&lt;color=#FFF950&gt;50万&lt;/color&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"1福利券","锁定x1",</t>
@@ -163,6 +152,16 @@
   </si>
   <si>
     <t>1050000,198</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福卡场中累计消耗&lt;color=#FFF950&gt;5万&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福卡场中累计消耗&lt;color=#FFF950&gt;50万&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>赢金场累计赢金&lt;color=#FFF950&gt;200万&lt;/color&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,7 +703,7 @@
         <v>85</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -716,10 +715,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -739,7 +738,7 @@
         <v>86</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -751,10 +750,10 @@
         <v>30</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -774,7 +773,7 @@
         <v>87</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>198</v>
@@ -786,16 +785,16 @@
         <v>90</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -822,46 +821,46 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -870,13 +869,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
